--- a/BackTest/2019-10-27 BackTest LINK.xlsx
+++ b/BackTest/2019-10-27 BackTest LINK.xlsx
@@ -5141,14 +5141,20 @@
         <v>3103.666666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3106</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5176,14 +5182,20 @@
         <v>3109.333333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3100</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5211,14 +5223,20 @@
         <v>3107.333333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3122</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5246,14 +5264,20 @@
         <v>3107.333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3100</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5281,14 +5305,20 @@
         <v>3097.666666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3100</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5316,14 +5346,20 @@
         <v>3095.333333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3093</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +5387,20 @@
         <v>3090</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3093</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +5428,20 @@
         <v>3086.666666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3084</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5421,14 +5469,20 @@
         <v>3087.333333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3083</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5456,14 +5510,20 @@
         <v>3086</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3095</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5558,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5597,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5636,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5675,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5714,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5753,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5792,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +5831,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +5870,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +5909,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +5948,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +5987,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6026,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6065,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6104,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6143,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6182,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6221,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6260,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6299,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6338,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6377,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6416,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6455,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6494,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6533,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6572,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6611,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6650,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6689,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6728,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6767,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +6806,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6845,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +6884,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6923,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6962,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6786,18 +6994,16 @@
         <v>3092.666666666667</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>3106</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -6827,14 +7033,12 @@
         <v>3090</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>3102</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -6868,14 +7072,12 @@
         <v>3083.333333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>3085</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -6909,14 +7111,12 @@
         <v>3083</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>3096</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -6950,14 +7150,12 @@
         <v>3086.666666666667</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>3083</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -6991,14 +7189,12 @@
         <v>3090.333333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>3095</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
@@ -7032,14 +7228,12 @@
         <v>3100</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>3095</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -7073,14 +7267,12 @@
         <v>3105.666666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7114,14 +7306,12 @@
         <v>3112.333333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>3115</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7155,14 +7345,12 @@
         <v>3108</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>3098</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7196,14 +7384,12 @@
         <v>3109</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>3114</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -7237,14 +7423,12 @@
         <v>3102</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>3100</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7278,14 +7462,12 @@
         <v>3106</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>3110</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7319,14 +7501,12 @@
         <v>3106.333333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>3110</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -7360,14 +7540,12 @@
         <v>3113.666666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>3115</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -7401,14 +7579,12 @@
         <v>3117</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>3116</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -7442,14 +7618,12 @@
         <v>3117.666666666667</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>3117</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -8731,14 +8905,12 @@
         <v>3098</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>3103</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
@@ -8772,14 +8944,12 @@
         <v>3107</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>3121</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -8813,14 +8983,12 @@
         <v>3115</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>3121</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -9403,18 +9571,16 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9442,15 +9608,11 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9485,11 +9647,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9524,11 +9682,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9563,11 +9717,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9602,11 +9752,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9641,11 +9787,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9676,16 +9818,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9713,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -9853,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -9923,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
@@ -9958,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
@@ -10063,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
@@ -10098,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
@@ -10133,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
@@ -10203,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -10238,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
@@ -10273,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
@@ -10378,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
@@ -10518,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest LINK.xlsx
+++ b/BackTest/2019-10-27 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17070.39221766773</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-17070.39221766773</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-17070.39221766773</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-16187.08561766773</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-15620.49221766773</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-15667.48461766773</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-15758.91861766773</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-15558.41901766773</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-15558.41901766773</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-14926.43751766773</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-14926.43751766773</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-16351.43691766773</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17573.33691766773</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17727.50171766773</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-19599.58271766773</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-19443.62841766773</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-19441.62841766773</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-19863.82321766773</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-19870.69451766773</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-23914.69451766773</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-23914.69451766773</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-23918.69451766773</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-23917.69451766773</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-23927.69451766773</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-25757.31501766773</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-25747.31501766773</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-25747.40651766772</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-25747.30651766773</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-26164.44581766773</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-25864.44581766773</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-26906.68521766772</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-26896.68521766772</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-30396.21841766773</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-29924.83811766772</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-29924.83811766772</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-29924.73811766773</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-29681.93041766773</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-29681.93041766773</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-29681.93041766773</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-29681.93041766773</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-36097.85471766772</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-36252.28941766772</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-36581.67721766772</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -7249,11 +7249,17 @@
         <v>-62268.84037301097</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3090</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7288,17 @@
         <v>-62288.84037301097</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3107</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7327,17 @@
         <v>-62274.62247301097</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3090</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7366,17 @@
         <v>-62274.62247301097</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3111</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7405,17 @@
         <v>-61799.76007301097</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3111</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7448,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7481,17 @@
         <v>-62118.89277301097</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>3130</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7520,17 @@
         <v>-62108.34557301097</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3100</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7563,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7600,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7637,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7674,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7711,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7748,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7785,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7822,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7859,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7896,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +7933,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +7970,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8007,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8044,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8081,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8118,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8155,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8192,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8229,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8266,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8303,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8340,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8377,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8414,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8451,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8488,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8525,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8562,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8599,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8636,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8673,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8710,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8747,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8784,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,15 +8817,15 @@
         <v>-64219.47837301096</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>3111</v>
-      </c>
-      <c r="J250" t="n">
-        <v>3111</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,17 +8854,13 @@
         <v>-64419.47837301096</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3115</v>
-      </c>
-      <c r="J251" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -8713,17 +8891,13 @@
         <v>-64419.37837301096</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>3098</v>
-      </c>
-      <c r="J252" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -8754,17 +8928,13 @@
         <v>-64479.54397301096</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>3114</v>
-      </c>
-      <c r="J253" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -8798,9 +8968,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8837,9 +9005,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8876,9 +9042,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8915,9 +9079,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8954,9 +9116,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8993,9 +9153,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9032,9 +9190,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9071,9 +9227,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9110,9 +9264,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9149,9 +9301,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9188,9 +9338,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9227,9 +9375,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9266,9 +9412,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9305,9 +9449,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9344,9 +9486,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9383,9 +9523,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9419,14 +9557,10 @@
         <v>-61633.30335691613</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>3135</v>
-      </c>
-      <c r="J270" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9460,14 +9594,10 @@
         <v>-62364.39815691613</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3133</v>
-      </c>
-      <c r="J271" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9504,9 +9634,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9543,9 +9671,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9582,9 +9708,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9621,9 +9745,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9660,9 +9782,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9699,9 +9819,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9738,9 +9856,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9777,9 +9893,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9816,9 +9930,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9855,9 +9967,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9894,9 +10004,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9933,9 +10041,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9972,9 +10078,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10011,9 +10115,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10050,9 +10152,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10086,14 +10186,10 @@
         <v>-63027.98195691613</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>3102</v>
-      </c>
-      <c r="J287" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10127,14 +10223,10 @@
         <v>-63430.11735691613</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>3099</v>
-      </c>
-      <c r="J288" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10168,14 +10260,10 @@
         <v>-63762.43635691613</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>3097</v>
-      </c>
-      <c r="J289" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10209,14 +10297,12 @@
         <v>-63759.12415691613</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>3094</v>
       </c>
-      <c r="J290" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10250,14 +10336,12 @@
         <v>-63450.14375691613</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>3097</v>
       </c>
-      <c r="J291" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10291,14 +10375,12 @@
         <v>-63400.37135691613</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>3103</v>
       </c>
-      <c r="J292" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10332,14 +10414,10 @@
         <v>-63400.37135691613</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>3121</v>
-      </c>
-      <c r="J293" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10376,9 +10454,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10415,9 +10491,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10454,9 +10528,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,9 +10565,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10532,9 +10602,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10568,14 +10636,10 @@
         <v>-64977.43095691612</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>3116</v>
-      </c>
-      <c r="J299" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,14 +10673,10 @@
         <v>-63954.15735691612</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3108</v>
-      </c>
-      <c r="J300" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10650,14 +10710,10 @@
         <v>-63954.15735691612</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3142</v>
-      </c>
-      <c r="J301" t="n">
-        <v>3111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10694,9 +10750,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10733,9 +10787,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10772,9 +10824,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10811,9 +10861,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10850,9 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10886,12 +10932,10 @@
         <v>-60080.62945691612</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10925,12 +10969,10 @@
         <v>-60571.55525691612</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10964,12 +11006,10 @@
         <v>-60442.97005691611</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11003,12 +11043,10 @@
         <v>-60368.97005691611</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11042,12 +11080,10 @@
         <v>-60338.25810723058</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11081,12 +11117,10 @@
         <v>-60356.34450723058</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11123,9 +11157,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11162,9 +11194,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11201,9 +11231,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11240,9 +11268,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11279,9 +11305,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11315,12 +11339,10 @@
         <v>-54598.56570723058</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11354,12 +11376,10 @@
         <v>-54461.99110723058</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11393,12 +11413,10 @@
         <v>-57953.24110723058</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11432,12 +11450,10 @@
         <v>-57953.14110723058</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11471,12 +11487,10 @@
         <v>-58413.41320723058</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11510,12 +11524,10 @@
         <v>-58413.31320723058</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11552,9 +11564,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11588,12 +11598,10 @@
         <v>-59012.31320723058</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11630,9 +11638,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11666,12 +11672,10 @@
         <v>-59012.31320723058</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11708,9 +11712,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11744,12 +11746,10 @@
         <v>-59012.31320723058</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11786,9 +11786,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11822,12 +11820,10 @@
         <v>-60013.50050723058</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11864,9 +11860,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11900,12 +11894,10 @@
         <v>-60317.98790723058</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11942,9 +11934,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11978,12 +11968,10 @@
         <v>-62002.67290723058</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12020,9 +12008,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12059,9 +12045,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12098,9 +12082,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12137,9 +12119,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12176,9 +12156,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12215,9 +12193,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12254,9 +12230,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12293,9 +12267,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12332,9 +12304,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12371,9 +12341,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12410,9 +12378,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12449,9 +12415,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12488,9 +12452,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12527,9 +12489,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12566,9 +12526,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12605,9 +12563,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12644,9 +12600,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,9 +12637,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12722,9 +12674,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12761,9 +12711,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12800,9 +12748,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12839,9 +12785,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12878,9 +12822,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12917,9 +12859,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12956,9 +12896,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12995,9 +12933,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13034,9 +12970,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13073,9 +13007,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13112,9 +13044,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13151,9 +13081,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13190,9 +13118,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13229,9 +13155,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13268,9 +13192,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13307,9 +13229,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13346,9 +13266,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13385,9 +13303,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13424,9 +13340,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13463,9 +13377,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13502,9 +13414,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13541,9 +13451,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13580,9 +13488,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13619,9 +13525,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13658,9 +13562,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13697,9 +13599,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13736,9 +13636,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13775,9 +13673,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13814,9 +13710,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13853,9 +13747,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13892,9 +13784,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13931,9 +13821,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13970,9 +13858,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14009,9 +13895,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14048,9 +13932,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14087,9 +13969,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14126,9 +14006,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14165,9 +14043,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14204,9 +14080,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14243,9 +14117,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14282,9 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14321,9 +14191,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14360,9 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14399,9 +14265,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14438,9 +14302,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14477,9 +14339,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14516,9 +14376,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14555,9 +14413,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14594,9 +14450,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14633,9 +14487,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14672,9 +14524,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14711,9 +14561,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14750,9 +14598,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14789,9 +14635,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14828,9 +14672,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14867,9 +14709,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14906,9 +14746,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14945,9 +14783,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14984,9 +14820,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15023,9 +14857,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15062,9 +14894,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15101,9 +14931,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15140,9 +14968,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15179,9 +15005,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15218,9 +15042,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15257,9 +15079,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15296,9 +15116,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15335,9 +15153,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15374,9 +15190,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15413,9 +15227,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15452,9 +15264,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15491,9 +15301,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15530,9 +15338,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15569,9 +15375,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15608,9 +15412,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15647,9 +15449,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15686,9 +15486,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15725,9 +15523,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15764,9 +15560,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15803,9 +15597,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15842,9 +15634,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15881,9 +15671,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15920,9 +15708,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15959,9 +15745,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15998,9 +15782,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16037,9 +15819,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16076,9 +15856,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16115,9 +15893,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16154,9 +15930,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16193,9 +15967,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16232,9 +16004,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16271,9 +16041,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16310,9 +16078,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16349,9 +16115,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16388,9 +16152,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16427,9 +16189,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16466,9 +16226,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16505,9 +16263,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16544,9 +16300,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16583,9 +16337,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16622,9 +16374,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16661,9 +16411,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16700,9 +16448,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>3111</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16714,6 +16460,6 @@
       <c r="M456" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LINK.xlsx
+++ b/BackTest/2019-10-27 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17070.39221766773</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-17070.39221766773</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-17070.39221766773</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-16187.08561766773</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-15620.49221766773</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-15667.48461766773</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-15758.91861766773</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-15558.41901766773</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-15558.41901766773</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-14926.43751766773</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-14926.43751766773</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-16351.43691766773</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17573.33691766773</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17727.50171766773</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-19599.58271766773</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-19443.62841766773</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-19441.62841766773</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-19863.82321766773</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-19870.69451766773</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-23914.69451766773</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-23914.69451766773</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-23918.69451766773</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-23917.69451766773</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-23927.69451766773</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-25757.31501766773</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-25747.31501766773</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-25747.40651766772</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-25747.30651766773</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-26164.44581766773</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-25864.44581766773</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-26906.68521766772</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-26896.68521766772</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-30396.21841766773</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-29924.83811766772</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-29924.83811766772</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-29924.73811766773</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-29681.93041766773</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-29681.93041766773</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-29681.93041766773</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-29681.93041766773</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-36097.85471766772</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-36252.28941766772</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-36581.67721766772</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-44652.41781766772</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-44912.86751766771</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-48132.94301766771</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-48113.94301766771</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-48215.90061766771</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-48219.90061766771</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-48219.90061766771</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-44791.72051065619</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-44790.72051065619</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-43870.08401065619</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-44067.15421065619</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -6787,10 +6787,14 @@
         <v>-61739.15803371261</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3105</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3105</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
@@ -6823,8 +6827,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +6866,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +6905,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +6944,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6980,19 @@
         <v>-67640.83443371262</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3100</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7021,19 @@
         <v>-67640.83443371262</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3093</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7062,19 @@
         <v>-68848.04543371261</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3093</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7103,19 @@
         <v>-68948.14773371261</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3084</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7144,19 @@
         <v>-62847.37213371261</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3083</v>
+      </c>
+      <c r="J203" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7188,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7227,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7263,19 @@
         <v>-64309.22893371261</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3081</v>
+      </c>
+      <c r="J206" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7307,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3105</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,15 +7343,15 @@
         <v>-62268.84037301097</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>3090</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3105</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L208" t="n">
@@ -7288,12 +7382,12 @@
         <v>-62288.84037301097</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3107</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3105</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7327,12 +7421,12 @@
         <v>-62274.62247301097</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3090</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3105</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7366,12 +7460,12 @@
         <v>-62274.62247301097</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>3111</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3105</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7405,12 +7499,12 @@
         <v>-61799.76007301097</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>3111</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3105</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7447,7 +7541,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3105</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7481,12 +7577,12 @@
         <v>-62118.89277301097</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3130</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3105</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7520,12 +7616,12 @@
         <v>-62108.34557301097</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3100</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3105</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7562,7 +7658,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3105</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7599,7 +7697,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3105</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7636,7 +7736,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3105</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7673,7 +7775,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3105</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7710,7 +7814,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3105</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7747,7 +7853,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3105</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7784,7 +7892,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3105</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7821,7 +7931,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3105</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7858,7 +7970,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3105</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7895,7 +8009,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3105</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7932,7 +8048,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3105</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,7 +8087,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3105</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8006,7 +8126,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3105</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8043,7 +8165,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3105</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8080,7 +8204,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3105</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8117,7 +8243,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3105</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8154,7 +8282,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3105</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8191,7 +8321,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3105</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8228,7 +8360,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3105</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8265,7 +8399,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3105</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8302,7 +8438,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3105</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8339,7 +8477,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3105</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,7 +8516,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3105</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8413,7 +8555,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3105</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8450,7 +8594,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3105</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8487,7 +8633,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3105</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8524,7 +8672,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3105</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8561,7 +8711,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3105</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8598,7 +8750,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3105</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8635,7 +8789,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3105</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,7 +8828,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3105</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8709,7 +8867,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3105</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,7 +8906,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3105</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8783,7 +8945,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3105</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8820,7 +8984,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3105</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8857,7 +9023,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3105</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8894,7 +9062,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3105</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8931,7 +9101,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3105</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8968,7 +9140,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3105</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9005,7 +9179,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3105</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9042,7 +9218,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3105</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9079,7 +9257,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3105</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,7 +9296,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3105</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9153,7 +9335,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3105</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,7 +9374,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3105</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9227,7 +9413,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3105</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,7 +9452,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3105</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9301,7 +9491,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3105</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9338,7 +9530,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3105</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9375,7 +9569,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3105</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9412,7 +9608,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3105</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9449,7 +9647,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3105</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9486,7 +9686,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3105</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,7 +9725,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3105</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,7 +9764,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3105</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9597,7 +9803,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3105</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9634,7 +9842,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3105</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9671,7 +9881,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3105</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9708,7 +9920,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3105</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9745,7 +9959,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3105</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9782,7 +9998,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3105</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9819,7 +10037,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3105</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9856,7 +10076,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3105</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9893,7 +10115,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3105</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9930,7 +10154,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3105</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9967,7 +10193,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3105</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10004,7 +10232,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3105</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10041,7 +10271,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3105</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10078,7 +10310,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3105</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10115,7 +10349,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3105</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10152,7 +10388,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3105</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10189,7 +10427,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3105</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10223,10 +10463,14 @@
         <v>-63430.11735691613</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>3099</v>
+      </c>
+      <c r="J288" t="n">
+        <v>3105</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10260,10 +10504,14 @@
         <v>-63762.43635691613</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>3097</v>
+      </c>
+      <c r="J289" t="n">
+        <v>3105</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10302,7 +10550,9 @@
       <c r="I290" t="n">
         <v>3094</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3105</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10341,7 +10591,9 @@
       <c r="I291" t="n">
         <v>3097</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3105</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10380,7 +10632,9 @@
       <c r="I292" t="n">
         <v>3103</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3105</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10417,7 +10671,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3105</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10454,7 +10710,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3105</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10491,7 +10749,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3105</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10528,7 +10788,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3105</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10565,7 +10827,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3105</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10602,7 +10866,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3105</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10639,7 +10905,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3105</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10676,7 +10944,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3105</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10713,7 +10983,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3105</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10750,7 +11022,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3105</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10787,7 +11061,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3105</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10824,7 +11100,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3105</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10861,7 +11139,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3105</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10898,7 +11178,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3105</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10935,7 +11217,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3105</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10972,7 +11256,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3105</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11009,7 +11295,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3105</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11046,7 +11334,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3105</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11083,7 +11373,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3105</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11120,7 +11412,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3105</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11157,7 +11451,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3105</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11194,7 +11490,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3105</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11231,7 +11529,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3105</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11268,7 +11568,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3105</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11305,7 +11607,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3105</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11342,7 +11646,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3105</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11379,7 +11685,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3105</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11416,7 +11724,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3105</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11453,7 +11763,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3105</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11490,7 +11802,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3105</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11527,7 +11841,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3105</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11564,7 +11880,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3105</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11601,7 +11919,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3105</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11638,7 +11958,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3105</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11675,7 +11997,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3105</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11712,7 +12036,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3105</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11749,7 +12075,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3105</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11786,7 +12114,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3105</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11823,7 +12153,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3105</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11860,7 +12192,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3105</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11897,7 +12231,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3105</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11934,7 +12270,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3105</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11971,7 +12309,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3105</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12008,7 +12348,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3105</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,7 +12387,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3105</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12079,17 +12423,19 @@
         <v>-64505.63790723058</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3105</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L338" t="n">
-        <v>1</v>
+        <v>1.009814814814815</v>
       </c>
       <c r="M338" t="inlineStr"/>
     </row>
@@ -12120,11 +12466,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12153,15 +12495,11 @@
         <v>-64203.19100723058</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12194,11 +12532,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12227,15 +12561,11 @@
         <v>-64312.68160723057</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12268,11 +12598,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12305,11 +12631,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12338,15 +12660,11 @@
         <v>-64317.74000723058</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12375,15 +12693,11 @@
         <v>-64263.06760723057</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12412,15 +12726,11 @@
         <v>-64180.03920723057</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12449,15 +12759,11 @@
         <v>-64302.96450723057</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12486,15 +12792,11 @@
         <v>-64302.96450723057</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12527,11 +12829,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12564,11 +12862,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12601,11 +12895,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12638,11 +12928,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12675,11 +12961,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12712,11 +12994,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12749,11 +13027,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12786,11 +13060,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12823,11 +13093,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12860,11 +13126,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12897,11 +13159,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12934,11 +13192,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12971,11 +13225,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13008,11 +13258,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13045,11 +13291,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13082,11 +13324,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13119,11 +13357,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13390,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13193,11 +13423,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13230,11 +13456,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13267,11 +13489,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13304,11 +13522,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13341,11 +13555,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13378,11 +13588,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13411,15 +13617,15 @@
         <v>-70963.48969727008</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3131</v>
+      </c>
+      <c r="J374" t="n">
+        <v>3131</v>
+      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13451,10 +13657,12 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3131</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L375" t="n">
@@ -13488,10 +13696,12 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3131</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L376" t="n">
@@ -13526,11 +13736,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13563,11 +13769,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13600,11 +13802,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13637,11 +13835,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13674,11 +13868,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13711,11 +13901,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13748,11 +13934,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13785,11 +13967,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13822,11 +14000,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13859,11 +14033,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13896,11 +14066,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13933,11 +14099,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13970,11 +14132,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14007,11 +14165,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14044,11 +14198,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14081,11 +14231,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14118,11 +14264,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14155,11 +14297,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14192,11 +14330,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14229,11 +14363,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14266,11 +14396,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14303,11 +14429,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14340,11 +14462,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14495,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14414,11 +14528,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14451,11 +14561,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14488,11 +14594,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14525,11 +14627,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14562,11 +14660,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14599,11 +14693,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14636,11 +14726,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14673,11 +14759,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14710,11 +14792,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14747,11 +14825,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14784,11 +14858,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14821,11 +14891,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14858,11 +14924,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14895,11 +14957,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14932,11 +14990,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14969,11 +15023,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15006,11 +15056,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15043,11 +15089,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15080,11 +15122,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15117,11 +15155,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15154,11 +15188,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15191,11 +15221,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15228,11 +15254,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15265,11 +15287,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15302,11 +15320,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15339,11 +15353,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15376,11 +15386,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15413,11 +15419,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15450,11 +15452,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15487,11 +15485,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15524,11 +15518,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15561,11 +15551,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15584,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15635,11 +15617,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15672,11 +15650,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15709,11 +15683,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15746,11 +15716,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15783,11 +15749,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15820,11 +15782,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15857,11 +15815,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15894,11 +15848,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15931,11 +15881,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15968,11 +15914,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16005,11 +15947,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16042,11 +15980,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16079,11 +16013,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16116,11 +16046,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16153,11 +16079,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16190,11 +16112,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16227,11 +16145,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16264,11 +16178,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16301,11 +16211,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16338,11 +16244,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16371,13 +16273,15 @@
         <v>-78704.28034026125</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>3117</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L454" t="n">
@@ -16445,9 +16349,11 @@
         <v>-78704.28034026125</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>3112</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -16460,6 +16366,6 @@
       <c r="M456" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LINK.xlsx
+++ b/BackTest/2019-10-27 BackTest LINK.xlsx
@@ -979,7 +979,7 @@
         <v>-15558.41901766773</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-14926.43751766773</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-16351.43691766773</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17573.33691766773</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17727.50171766773</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-19599.58271766773</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-19443.62841766773</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-19441.62841766773</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-19863.82321766773</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-19870.69451766773</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-23914.69451766773</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-23914.69451766773</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-25747.31501766773</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-44652.41781766772</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-44912.86751766771</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-48132.94301766771</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-48113.94301766771</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-48215.90061766771</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-48219.90061766771</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-48219.90061766771</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-44791.72051065619</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-44790.72051065619</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-43870.08401065619</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-44067.15421065619</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -6787,14 +6787,10 @@
         <v>-61739.15803371261</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3105</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
@@ -6827,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6866,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6905,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6944,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6980,19 +6952,11 @@
         <v>-67640.83443371262</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3100</v>
-      </c>
-      <c r="J199" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7021,19 +6985,11 @@
         <v>-67640.83443371262</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3093</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7062,19 +7018,11 @@
         <v>-68848.04543371261</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3093</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7103,19 +7051,11 @@
         <v>-68948.14773371261</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3084</v>
-      </c>
-      <c r="J202" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7144,19 +7084,11 @@
         <v>-62847.37213371261</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3083</v>
-      </c>
-      <c r="J203" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7188,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7227,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7263,19 +7183,11 @@
         <v>-64309.22893371261</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>3081</v>
-      </c>
-      <c r="J206" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7307,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7346,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7385,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7424,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7463,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7502,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7541,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7580,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7619,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7658,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7697,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7736,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7775,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7814,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7853,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7892,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7931,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7970,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8009,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8048,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8087,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8126,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8165,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8204,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8243,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8282,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8321,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8360,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8399,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8438,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8477,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8516,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8555,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8594,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8633,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8672,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8711,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8750,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8789,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8828,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8864,17 +8536,15 @@
         <v>-65660.47837301096</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>3094</v>
+      </c>
       <c r="J247" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3094</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8903,15 +8573,17 @@
         <v>-64220.47837301096</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>3095</v>
+      </c>
       <c r="J248" t="n">
-        <v>3105</v>
+        <v>3094</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
@@ -8942,15 +8614,17 @@
         <v>-64220.47837301096</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>3111</v>
+      </c>
       <c r="J249" t="n">
-        <v>3105</v>
+        <v>3094</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -8981,17 +8655,15 @@
         <v>-64219.47837301096</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>3111</v>
+      </c>
       <c r="J250" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3111</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9020,15 +8692,17 @@
         <v>-64419.47837301096</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3115</v>
+      </c>
       <c r="J251" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -9059,15 +8733,17 @@
         <v>-64419.37837301096</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>3098</v>
+      </c>
       <c r="J252" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -9098,15 +8774,17 @@
         <v>-64479.54397301096</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3114</v>
+      </c>
       <c r="J253" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -9137,11 +8815,13 @@
         <v>-64476.54397301096</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>3094</v>
+      </c>
       <c r="J254" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9180,7 +8860,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9219,7 +8899,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9258,7 +8938,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9297,7 +8977,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9336,7 +9016,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9375,7 +9055,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9414,7 +9094,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9453,7 +9133,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9492,7 +9172,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9531,7 +9211,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9570,7 +9250,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9609,7 +9289,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9648,7 +9328,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9687,7 +9367,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9726,7 +9406,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9765,7 +9445,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9804,7 +9484,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9843,7 +9523,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9882,7 +9562,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9921,7 +9601,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9960,7 +9640,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9999,7 +9679,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10038,7 +9718,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10077,7 +9757,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10116,7 +9796,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10155,7 +9835,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10194,7 +9874,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10233,7 +9913,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10272,7 +9952,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10311,7 +9991,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10350,7 +10030,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10385,11 +10065,13 @@
         <v>-62988.30855691613</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>3109</v>
+      </c>
       <c r="J286" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10424,11 +10106,13 @@
         <v>-63027.98195691613</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>3102</v>
+      </c>
       <c r="J287" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10469,7 +10153,7 @@
         <v>3099</v>
       </c>
       <c r="J288" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10510,7 +10194,7 @@
         <v>3097</v>
       </c>
       <c r="J289" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10551,7 +10235,7 @@
         <v>3094</v>
       </c>
       <c r="J290" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10592,7 +10276,7 @@
         <v>3097</v>
       </c>
       <c r="J291" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10633,7 +10317,7 @@
         <v>3103</v>
       </c>
       <c r="J292" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10668,11 +10352,13 @@
         <v>-63400.37135691613</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>3121</v>
+      </c>
       <c r="J293" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10707,11 +10393,13 @@
         <v>-63695.38205691613</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3121</v>
+      </c>
       <c r="J294" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10746,11 +10434,13 @@
         <v>-63695.38205691613</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3114</v>
+      </c>
       <c r="J295" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10785,11 +10475,13 @@
         <v>-63512.03915691612</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3114</v>
+      </c>
       <c r="J296" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10824,11 +10516,13 @@
         <v>-63512.03915691612</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3128</v>
+      </c>
       <c r="J297" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10863,11 +10557,13 @@
         <v>-64660.47695691612</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>3128</v>
+      </c>
       <c r="J298" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10902,11 +10598,13 @@
         <v>-64977.43095691612</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3116</v>
+      </c>
       <c r="J299" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10941,11 +10639,13 @@
         <v>-63954.15735691612</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3108</v>
+      </c>
       <c r="J300" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10984,7 +10684,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11023,7 +10723,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11062,7 +10762,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11101,7 +10801,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11140,7 +10840,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11179,7 +10879,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11218,7 +10918,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11257,7 +10957,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11296,7 +10996,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11335,7 +11035,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11374,7 +11074,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11413,7 +11113,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11452,7 +11152,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11491,7 +11191,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11530,7 +11230,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11569,7 +11269,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11608,7 +11308,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11647,7 +11347,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11686,7 +11386,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11725,7 +11425,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11764,7 +11464,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11803,7 +11503,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11842,7 +11542,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11881,7 +11581,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11920,7 +11620,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11959,7 +11659,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11998,7 +11698,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12037,7 +11737,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12076,7 +11776,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12115,7 +11815,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12154,7 +11854,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12193,7 +11893,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12232,7 +11932,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12271,7 +11971,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12310,7 +12010,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12349,7 +12049,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12388,7 +12088,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12423,19 +12123,19 @@
         <v>-64505.63790723058</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L338" t="n">
-        <v>1.009814814814815</v>
+        <v>1</v>
       </c>
       <c r="M338" t="inlineStr"/>
     </row>
@@ -12465,8 +12165,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12495,11 +12201,17 @@
         <v>-64203.19100723058</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12531,8 +12243,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12561,11 +12279,17 @@
         <v>-64312.68160723057</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12597,8 +12321,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12630,8 +12360,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12660,11 +12396,17 @@
         <v>-64317.74000723058</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12693,11 +12435,17 @@
         <v>-64263.06760723057</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12726,11 +12474,17 @@
         <v>-64180.03920723057</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12759,11 +12513,17 @@
         <v>-64302.96450723057</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12792,11 +12552,17 @@
         <v>-64302.96450723057</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12828,8 +12594,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12861,8 +12633,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12894,8 +12672,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12927,8 +12711,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12960,8 +12750,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12993,8 +12789,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13026,8 +12828,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13059,8 +12867,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13092,8 +12906,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13125,8 +12945,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13158,8 +12984,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13191,8 +13023,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13224,8 +13062,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13257,8 +13101,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13290,8 +13140,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13323,8 +13179,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13356,8 +13218,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13389,8 +13257,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13422,8 +13296,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13455,8 +13335,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13488,8 +13374,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13521,8 +13413,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13554,8 +13452,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13587,8 +13491,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13617,15 +13527,17 @@
         <v>-70963.48969727008</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>3131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>3131</v>
-      </c>
-      <c r="K374" t="inlineStr"/>
+        <v>3111</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13658,11 +13570,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>3131</v>
+        <v>3111</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L375" t="n">
@@ -13697,11 +13609,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>3131</v>
+        <v>3111</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L376" t="n">
@@ -13735,8 +13647,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13768,8 +13686,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13801,8 +13725,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13834,8 +13764,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13867,8 +13803,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13900,8 +13842,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13933,8 +13881,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13966,8 +13920,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13999,8 +13959,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14032,8 +13998,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14065,8 +14037,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14098,8 +14076,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14131,8 +14115,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14164,8 +14154,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14197,8 +14193,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14230,8 +14232,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14263,8 +14271,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14296,8 +14310,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14329,8 +14349,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14362,8 +14388,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14395,8 +14427,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14428,8 +14466,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14461,8 +14505,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14494,8 +14544,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14527,8 +14583,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14560,8 +14622,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14593,8 +14661,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14626,8 +14700,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14659,8 +14739,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14692,8 +14778,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14725,8 +14817,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14758,8 +14856,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14791,8 +14895,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14824,8 +14934,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14857,8 +14973,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14890,8 +15012,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14923,8 +15051,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14956,8 +15090,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14989,8 +15129,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15022,8 +15168,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15055,8 +15207,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15088,8 +15246,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15121,8 +15285,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15154,8 +15324,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15187,8 +15363,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15220,8 +15402,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15253,8 +15441,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15286,8 +15480,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15319,8 +15519,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15352,8 +15558,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15385,8 +15597,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15418,8 +15636,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15451,8 +15675,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15484,8 +15714,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15517,8 +15753,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15550,8 +15792,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15583,8 +15831,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15616,8 +15870,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15649,8 +15909,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15682,8 +15948,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15715,8 +15987,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15748,8 +16026,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15781,8 +16065,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15814,8 +16104,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15847,8 +16143,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15880,8 +16182,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15913,8 +16221,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15946,8 +16260,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15979,8 +16299,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16012,8 +16338,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16045,8 +16377,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16078,8 +16416,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16111,8 +16455,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16144,8 +16494,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16177,8 +16533,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16210,8 +16572,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16243,8 +16611,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3111</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16273,15 +16647,15 @@
         <v>-78704.28034026125</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>3117</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3111</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L454" t="n">
@@ -16315,7 +16689,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3111</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16349,12 +16725,12 @@
         <v>-78704.28034026125</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>3112</v>
-      </c>
-      <c r="J456" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3111</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
